--- a/loginpage.xlsx
+++ b/loginpage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s524988\Desktop\testing\homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Test case number</t>
   </si>
@@ -44,141 +44,63 @@
     <t>Status(Pass/Fail)</t>
   </si>
   <si>
-    <t>a.Open a web browser and type the url</t>
-  </si>
-  <si>
-    <t>c.Press the login button</t>
-  </si>
-  <si>
     <t>Homepage is displayed</t>
   </si>
   <si>
     <t>Check the text fields</t>
   </si>
   <si>
-    <t xml:space="preserve">a. click on the text field </t>
-  </si>
-  <si>
-    <t>b. text field should be enabled</t>
-  </si>
-  <si>
     <t>login button</t>
   </si>
   <si>
-    <t>b.View the login button</t>
-  </si>
-  <si>
     <t>Redirect to login page</t>
   </si>
   <si>
-    <t>Details page should be displayed</t>
-  </si>
-  <si>
     <t>Should be able to type</t>
   </si>
   <si>
     <t>Home button</t>
   </si>
   <si>
-    <t>a. Click on the home button</t>
-  </si>
-  <si>
     <t>About us button</t>
   </si>
   <si>
-    <t>1. Go to homepage of partguard</t>
-  </si>
-  <si>
     <t>Redirect to About us page</t>
   </si>
   <si>
-    <t>2. View the About us button on the top</t>
-  </si>
-  <si>
-    <t>3.Press on the button About us</t>
-  </si>
-  <si>
     <t>How it works button</t>
   </si>
   <si>
-    <t>1. Go to homepage of partyguard</t>
-  </si>
-  <si>
     <t>Redirects to the how it works page</t>
   </si>
   <si>
-    <t>2. View the button How it works</t>
-  </si>
-  <si>
-    <t>3. Click on the button How it works</t>
-  </si>
-  <si>
     <t>FAQs button</t>
   </si>
   <si>
     <t>Redirect to FAQs page</t>
   </si>
   <si>
-    <t>2. View the FAQs  button on the top</t>
-  </si>
-  <si>
-    <t>3.Press on the button FAQs</t>
-  </si>
-  <si>
     <t>Contact us button</t>
   </si>
   <si>
     <t>Redirect to Contact us page</t>
   </si>
   <si>
-    <t>2. View the Contact us button on the top</t>
-  </si>
-  <si>
-    <t>3.Press on the button Contact us</t>
-  </si>
-  <si>
     <t>Login button</t>
   </si>
   <si>
-    <t>2. View the Login button on the top</t>
-  </si>
-  <si>
-    <t>3.Press on the button Login</t>
-  </si>
-  <si>
     <t>Sign up link</t>
   </si>
   <si>
-    <t>2. View the sign up link</t>
-  </si>
-  <si>
-    <t>3. should be able to view the sign up page</t>
-  </si>
-  <si>
     <t>Redirect to signup page</t>
   </si>
   <si>
     <t>forgot  password link</t>
   </si>
   <si>
-    <t>a. View the forgot password link</t>
-  </si>
-  <si>
-    <t>b. Click the forgot password link</t>
-  </si>
-  <si>
     <t>Register as a guard button</t>
   </si>
   <si>
-    <t>1.Go to login page</t>
-  </si>
-  <si>
-    <t>2.View the register as a guard button</t>
-  </si>
-  <si>
-    <t>3.Click on the register as a guard button</t>
-  </si>
-  <si>
     <t>Registration page is displayed</t>
   </si>
   <si>
@@ -212,9 +134,6 @@
     <t>Sign up page is displayed</t>
   </si>
   <si>
-    <t>b. Homepage should be displayed</t>
-  </si>
-  <si>
     <t>contact partyguard link</t>
   </si>
   <si>
@@ -270,6 +189,126 @@
   </si>
   <si>
     <t>view the emergency link</t>
+  </si>
+  <si>
+    <t>Verify the text</t>
+  </si>
+  <si>
+    <t>Go to homepage of partyguard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text should be present </t>
+  </si>
+  <si>
+    <t>Text is present</t>
+  </si>
+  <si>
+    <t>Check for the text present in homepage</t>
+  </si>
+  <si>
+    <t>Go to login page of partyguard</t>
+  </si>
+  <si>
+    <t>Open a web browser and type the url</t>
+  </si>
+  <si>
+    <t>View the login button</t>
+  </si>
+  <si>
+    <t>Press the login button</t>
+  </si>
+  <si>
+    <t>View the forgot password link</t>
+  </si>
+  <si>
+    <t>Click the forgot password link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on the text field </t>
+  </si>
+  <si>
+    <t>text field should be enabled</t>
+  </si>
+  <si>
+    <t>Click on the home button</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homepage should be displayed</t>
+  </si>
+  <si>
+    <t>Go to homepage of partguard</t>
+  </si>
+  <si>
+    <t>Go to login page</t>
+  </si>
+  <si>
+    <t>View the register as a guard button</t>
+  </si>
+  <si>
+    <t>Click on the register as a guard button</t>
+  </si>
+  <si>
+    <t>should be able to view the sign up page</t>
+  </si>
+  <si>
+    <t>View the sign up link</t>
+  </si>
+  <si>
+    <t>Press on the button Login</t>
+  </si>
+  <si>
+    <t>View the Login button on the top</t>
+  </si>
+  <si>
+    <t>View the Contact us button on the top</t>
+  </si>
+  <si>
+    <t>Press on the button Contact us</t>
+  </si>
+  <si>
+    <t>Press on the button FAQs</t>
+  </si>
+  <si>
+    <t>View the FAQs  button on the top</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go to homepage of partguard</t>
+  </si>
+  <si>
+    <t>View the button How it works</t>
+  </si>
+  <si>
+    <t>Click on the button How it works</t>
+  </si>
+  <si>
+    <t>Press on the button About us</t>
+  </si>
+  <si>
+    <t>View the About us button on the top</t>
+  </si>
+  <si>
+    <t>registration page button</t>
+  </si>
+  <si>
+    <t>reistration page should be displayed</t>
+  </si>
+  <si>
+    <t>registration page is displayed</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>click on login button</t>
+  </si>
+  <si>
+    <t>click on registration button</t>
+  </si>
+  <si>
+    <t>change password page should be displayed</t>
+  </si>
+  <si>
+    <t>change password page is displayed</t>
   </si>
 </sst>
 </file>
@@ -601,9 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:F58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -640,29 +681,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,24 +711,24 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -695,24 +736,24 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -720,24 +761,24 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,29 +786,29 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,29 +816,29 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,29 +846,29 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,29 +876,29 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -865,29 +906,29 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,29 +936,29 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -925,29 +966,29 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -955,29 +996,29 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,29 +1026,29 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,29 +1056,29 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,29 +1086,29 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,29 +1116,81 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
